--- a/case_tmp_ver302.xlsx
+++ b/case_tmp_ver302.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$99</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="484">
   <si>
     <t>Summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4308,144 +4308,149 @@
     <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03020400"}</t>
   </si>
   <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03020500"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03020900"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"03020600"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021000"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021100"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021200"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021300"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021400"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03010200"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03010300"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03010400"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021500"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021201"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"03021201"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021202"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021301"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"03021301"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021302"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"01070200"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"06000000"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"06010000"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"06030000"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"06010000"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03020700"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03020800"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021700"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021600"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021800"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021900"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03022000"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021801"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03010700"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03010600"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"01100100"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"03030000"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03022101"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"06010100"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"01070000"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"01070000"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"searchRes","widget_id":"03020000"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"01070600"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"861579030145560"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页单条结果曝光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchon,switchoff,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03020401"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03020500"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03020900"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"03020600"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021000"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021100"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021200"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021300"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021400"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03010200"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03010300"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03010400"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021500"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021201"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"03021201"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021202"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021301"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"03021301"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021302"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"01070200"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"06000000"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"06010000"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"06030000"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"06010000"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03020700"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03020800"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021700"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021600"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021800"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021900"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03022000"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03021801"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03010700"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03010600"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"01100100"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"03030000"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"03022101"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"06010100"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"01070000"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"click","widget_id":"01070000"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"searchRes","widget_id":"03020000"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560","event_id":"expose","widget_id":"01070600"}</t>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"861579030145560"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页单条结果曝光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switchon,switchoff,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pano_session_id,from=10000000,pano_session_id_fine_grained</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4844,8 +4849,8 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="E26:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4920,7 +4925,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -6314,7 +6319,7 @@
         <v>187</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -6346,7 +6351,7 @@
         <v>190</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -6378,7 +6383,7 @@
         <v>198</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -6410,7 +6415,7 @@
         <v>393</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -6442,7 +6447,7 @@
         <v>202</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -6474,7 +6479,7 @@
         <v>206</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
@@ -6506,7 +6511,7 @@
         <v>212</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -6538,7 +6543,7 @@
         <v>215</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
@@ -6570,7 +6575,7 @@
         <v>219</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
@@ -6602,7 +6607,7 @@
         <v>381</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -6634,7 +6639,7 @@
         <v>223</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
@@ -6666,7 +6671,7 @@
         <v>227</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -6698,7 +6703,7 @@
         <v>230</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -6730,7 +6735,7 @@
         <v>235</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
@@ -6762,7 +6767,7 @@
         <v>241</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
@@ -6794,7 +6799,7 @@
         <v>383</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
@@ -6826,7 +6831,7 @@
         <v>394</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
@@ -6858,7 +6863,7 @@
         <v>244</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
@@ -6890,7 +6895,7 @@
         <v>256</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -6922,7 +6927,7 @@
         <v>261</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -6954,7 +6959,7 @@
         <v>277</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -6986,7 +6991,7 @@
         <v>278</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -7018,7 +7023,7 @@
         <v>413</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -7050,7 +7055,7 @@
         <v>276</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -7076,13 +7081,13 @@
         <v>238</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>399</v>
+        <v>483</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>279</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
@@ -7114,7 +7119,7 @@
         <v>403</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
@@ -7146,7 +7151,7 @@
         <v>287</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
@@ -7178,7 +7183,7 @@
         <v>404</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
@@ -7210,7 +7215,7 @@
         <v>286</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -7242,7 +7247,7 @@
         <v>292</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
@@ -7274,7 +7279,7 @@
         <v>293</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
@@ -7306,7 +7311,7 @@
         <v>406</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
@@ -7332,13 +7337,13 @@
         <v>178</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>305</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
@@ -7364,13 +7369,13 @@
         <v>178</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>306</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
@@ -7402,7 +7407,7 @@
         <v>417</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
@@ -7434,7 +7439,7 @@
         <v>312</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
@@ -7466,7 +7471,7 @@
         <v>315</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
@@ -7498,7 +7503,7 @@
         <v>318</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
@@ -7530,7 +7535,7 @@
         <v>327</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
@@ -7562,7 +7567,7 @@
         <v>323</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
@@ -7594,7 +7599,7 @@
         <v>326</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
@@ -7626,7 +7631,7 @@
         <v>331</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
@@ -7658,7 +7663,7 @@
         <v>332</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
@@ -7690,7 +7695,7 @@
         <v>335</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -7722,7 +7727,7 @@
         <v>339</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
@@ -7754,7 +7759,7 @@
         <v>344</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
@@ -7786,7 +7791,7 @@
         <v>415</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
@@ -7818,7 +7823,7 @@
         <v>353</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
@@ -7850,7 +7855,7 @@
         <v>359</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
@@ -7882,7 +7887,7 @@
         <v>360</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
@@ -7914,7 +7919,7 @@
         <v>378</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
@@ -7944,7 +7949,7 @@
         <v>367</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
@@ -7955,7 +7960,7 @@
         <v>257</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>364</v>
@@ -7976,11 +7981,11 @@
         <v>377</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:J99"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
